--- a/timings.xlsx
+++ b/timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF6C2A-1A93-4C15-901E-7CFFE9672069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE66EC7-6A99-42B3-BABC-453ACD0E8E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>section</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>anscombe</t>
+  </si>
+  <si>
+    <t>conclusion</t>
   </si>
 </sst>
 </file>
@@ -145,8 +148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4740B3F-8AFD-4CD6-A1BB-8BC1B9E31A17}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{D199488E-4C6B-4258-9381-07DF1725282A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4740B3F-8AFD-4CD6-A1BB-8BC1B9E31A17}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{D199488E-4C6B-4258-9381-07DF1725282A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E4DF0B52-3EAA-41A4-B19A-1AB7EC392BD5}" name="section"/>
     <tableColumn id="2" xr3:uid="{C1E68D4B-9C28-4DA8-8C71-8A96BBADC487}" name="section name"/>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -619,6 +622,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE66EC7-6A99-42B3-BABC-453ACD0E8E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C56439-B4F9-4B5A-AFB3-3162176B51F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>section</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>conclusion</t>
+  </si>
+  <si>
+    <t>correlation-drill</t>
+  </si>
+  <si>
+    <t>correlation-drill-solution</t>
+  </si>
+  <si>
+    <t>correlation-explanation</t>
+  </si>
+  <si>
+    <t>regression-intro</t>
+  </si>
+  <si>
+    <t>regression-intro-drill</t>
+  </si>
+  <si>
+    <t>regression-intro-drill-solutions</t>
+  </si>
+  <si>
+    <t>r-square-point-estimate-lecture</t>
+  </si>
+  <si>
+    <t>r-square-point-estimate-demo</t>
   </si>
 </sst>
 </file>
@@ -148,8 +172,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4740B3F-8AFD-4CD6-A1BB-8BC1B9E31A17}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{D199488E-4C6B-4258-9381-07DF1725282A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4740B3F-8AFD-4CD6-A1BB-8BC1B9E31A17}" name="Table1" displayName="Table1" ref="A1:C26" totalsRowShown="0">
+  <autoFilter ref="A1:C26" xr:uid="{D199488E-4C6B-4258-9381-07DF1725282A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E4DF0B52-3EAA-41A4-B19A-1AB7EC392BD5}" name="section"/>
     <tableColumn id="2" xr3:uid="{C1E68D4B-9C28-4DA8-8C71-8A96BBADC487}" name="section name"/>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -619,17 +643,105 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C26">
         <v>4</v>
       </c>
     </row>
